--- a/QLyBanVatTu/GUI/bin/Debug/DanhSachKhachhang.xlsx
+++ b/QLyBanVatTu/GUI/bin/Debug/DanhSachKhachhang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="Rc9b38d1ee8b34688"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="Rc28511dc9a0e4c04"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -71,13 +71,13 @@
         <x:v>KH4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>cu Ân</x:v>
+        <x:v>q</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>fsdfsdfsdfsf</x:v>
+        <x:v>q</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>942343242</x:v>
+        <x:v>21213131</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/QLyBanVatTu/GUI/bin/Debug/DanhSachKhachhang.xlsx
+++ b/QLyBanVatTu/GUI/bin/Debug/DanhSachKhachhang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="Rc28511dc9a0e4c04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R3acaa2d226eb467e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,78 +12,93 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Mã khách hàng</x:v>
+        <x:v>LH_Ma</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Tên khách hàng</x:v>
+        <x:v>LH_Ten</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Địa chỉ</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Số điện thoại</x:v>
+        <x:v>LH_MoTa</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>KH01</x:v>
+        <x:v>LH_1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Nguyễn Văn A</x:v>
+        <x:v>VẬT TƯ TIÊU CHUẨN PHẦN THÔ</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>123 Đường ABC, Quận 1, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
+        <x:v>Bao gồm các loại vật tư để xây dựng nên móng,...</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>KH02</x:v>
+        <x:v>LH_2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Trần Thị B</x:v>
+        <x:v>SƠN NƯỚC</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
+        <x:v>Bao gồm sơn nước, sơn khô, sơn xịt,...</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>KH03</x:v>
+        <x:v>LH_3</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Lê Văn C</x:v>
+        <x:v>LÁT NỀN</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>789 Đường LMN, Quận 3, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
+        <x:v>Bao gồm các loại gạch lát từ trong nhà ngoài sân,...</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>KH4</x:v>
+        <x:v>LH_4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>q</x:v>
+        <x:v>GẠCH ỐP TƯỜNG</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>q</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>21213131</x:v>
+        <x:v>Bao gồm các loại gạch đá,...</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v/>
+        <x:v>LH_5</x:v>
       </x:c>
+      <x:c t="str">
+        <x:v>TRẦN THẠCH CAO</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Bao gồm các loại thạch cao ốp trần nhà,...</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>LH_6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>CỔNG </x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Gồm các loại cổng,...</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>LH_7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>CỬA</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Gồm các loại cửa,...</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
       <x:c t="str">
         <x:v/>
       </x:c>

--- a/QLyBanVatTu/GUI/bin/Debug/DanhSachKhachhang.xlsx
+++ b/QLyBanVatTu/GUI/bin/Debug/DanhSachKhachhang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R3acaa2d226eb467e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R21b51b2fbf6c4e89"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,93 +12,134 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>LH_Ma</x:v>
+        <x:v>Mã khách hàng</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>LH_Ten</x:v>
+        <x:v>Tên khách hàng</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>LH_MoTa</x:v>
+        <x:v>Địa chỉ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Số điện thoại</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>LH_1</x:v>
+        <x:v>KH_1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>VẬT TƯ TIÊU CHUẨN PHẦN THÔ</x:v>
+        <x:v>Nguyễn Văn A</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Bao gồm các loại vật tư để xây dựng nên móng,...</x:v>
+        <x:v>123 Đường ABC, Quận 1, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>LH_2</x:v>
+        <x:v>KH_2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>SƠN NƯỚC</x:v>
+        <x:v>Trần Thị B</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Bao gồm sơn nước, sơn khô, sơn xịt,...</x:v>
+        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>LH_3</x:v>
+        <x:v>KH_3</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>LÁT NỀN</x:v>
+        <x:v>Lê Văn C</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Bao gồm các loại gạch lát từ trong nhà ngoài sân,...</x:v>
+        <x:v>789 Đường NVC, Quận 3, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>LH_4</x:v>
+        <x:v>KH_4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>GẠCH ỐP TƯỜNG</x:v>
+        <x:v>Trần Thanh Kiệp</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Bao gồm các loại gạch đá,...</x:v>
+        <x:v>789 Đường NVL, Quận 5, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>LH_5</x:v>
+        <x:v>KH_5</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>TRẦN THẠCH CAO</x:v>
+        <x:v>Đỗ Khánh Toàn</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Bao gồm các loại thạch cao ốp trần nhà,...</x:v>
+        <x:v>789 Đường NVC, Quận 9, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>LH_6</x:v>
+        <x:v>KH_6</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>CỔNG </x:v>
+        <x:v>Huỳnh Trung Tín</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Gồm các loại cổng,...</x:v>
+        <x:v>789 Đường 3/2, Quận 10, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>LH_7</x:v>
+        <x:v>KH_7</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>CỬA</x:v>
+        <x:v>Nguyễn Thành An</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Gồm các loại cửa,...</x:v>
+        <x:v>789 Đường 30/4, Quận 1, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
       </x:c>
     </x:row>
     <x:row>
+      <x:c t="str">
+        <x:v>KH_8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Nguyễn Văn B</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Cần Thơ</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
       <x:c t="str">
         <x:v/>
       </x:c>
